--- a/Mobile_testing_(Checklist).xlsx
+++ b/Mobile_testing_(Checklist).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\АЛЕХАНДРО\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\АЛЕХАНДРО\Desktop\git_repo\Test_Theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Testing sections</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Політики конфіденційності та інші посилання на документи</t>
+  </si>
+  <si>
+    <t>Conpatibility testing (тестування сумісності)</t>
   </si>
 </sst>
 </file>
@@ -162,7 +165,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -292,7 +295,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -602,7 +605,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C2" sqref="C2:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,12 +899,23 @@
       <c r="C31" s="14"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>2</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>2.1</v>
+      </c>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="B34" s="1"/>
     </row>
   </sheetData>

--- a/Mobile_testing_(Checklist).xlsx
+++ b/Mobile_testing_(Checklist).xlsx
@@ -280,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -321,6 +321,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,10 +902,10 @@
       <c r="C31" s="14"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="15">
         <v>2</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="15" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Mobile_testing_(Checklist).xlsx
+++ b/Mobile_testing_(Checklist).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Testing sections</t>
   </si>
@@ -157,7 +157,28 @@
     <t>Політики конфіденційності та інші посилання на документи</t>
   </si>
   <si>
-    <t>Conpatibility testing (тестування сумісності)</t>
+    <t>Compatibility testing (тестування сумісності)</t>
+  </si>
+  <si>
+    <t>Коректне відображення гео</t>
+  </si>
+  <si>
+    <t>Інформація про операції (чеки тощо)</t>
+  </si>
+  <si>
+    <t>Різні методи оплати (Google Pay, Apple Pay)</t>
+  </si>
+  <si>
+    <t>Тестування датчиків (освітленості, температури пристрою, гіроскоп тощо)</t>
+  </si>
+  <si>
+    <t>Тестування переривань (вхідний дзвінок/смс/push/будильник/режим «Не турбувати» тощо)</t>
+  </si>
+  <si>
+    <t>Підключення зовнішніх пристроїв (карта пам'яті/навушники тощо)</t>
+  </si>
+  <si>
+    <t>Тестування сумісності використовується, щоб переконатися, що ваша програма сумісна з іншими версіями ОС, різними оболонками та сторонніми сервісами, а також апаратним забезпеченням пристрою.</t>
   </si>
 </sst>
 </file>
@@ -167,7 +188,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,16 +213,23 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -280,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -289,10 +317,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -319,11 +347,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="C32" sqref="C32:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,29 +933,75 @@
       </c>
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>2</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="C32" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
         <v>2.1</v>
       </c>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="B33" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="15"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B34" s="1"/>
+      <c r="B34" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="15"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="15"/>
+    </row>
+    <row r="36" spans="1:3" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="15"/>
+    </row>
+    <row r="37" spans="1:3" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="15"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C2:C31"/>
+    <mergeCell ref="C32:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Mobile_testing_(Checklist).xlsx
+++ b/Mobile_testing_(Checklist).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Testing sections</t>
   </si>
@@ -40,12 +40,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Functional testing (функціональне тестування)</t>
-  </si>
-  <si>
-    <t>Запуск застосунку (відображення Splash Screen)</t>
-  </si>
-  <si>
     <t>Встановлення/видалення/накатка версій</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
     <t>Валідація обов'язкових полів</t>
   </si>
   <si>
-    <t>Навігація між розділами застосунку</t>
-  </si>
-  <si>
     <t>Редагування даних в профілі користувача</t>
   </si>
   <si>
@@ -112,9 +103,6 @@
     <t>Робота з файлами (відправка/отримання/перегляд)</t>
   </si>
   <si>
-    <t>Тестування тайм-аутів (автоматичний вихід з застосунку при закінченні певного часу)</t>
-  </si>
-  <si>
     <t>Тестування заглушок (немає з'єднання з інтернетом/немає, наприклад, товарів і т.д.)</t>
   </si>
   <si>
@@ -133,36 +121,21 @@
     <t>Різні типи підключень (стільниковий зв'язок/Wi-Fi)</t>
   </si>
   <si>
-    <t>Згортання/розгортання застосунку</t>
-  </si>
-  <si>
     <t>Орієнтація екрану (альбомна/портретна)</t>
   </si>
   <si>
     <t>Темна/світла теми</t>
   </si>
   <si>
-    <t>Реклама в застосунку</t>
-  </si>
-  <si>
     <t>Шарінг контенту в соц. мережі</t>
   </si>
   <si>
-    <t>Робота застосунку в фоні</t>
-  </si>
-  <si>
     <t>Пагінація сторінок</t>
   </si>
   <si>
     <t>Політики конфіденційності та інші посилання на документи</t>
   </si>
   <si>
-    <t>Compatibility testing (тестування сумісності)</t>
-  </si>
-  <si>
-    <t>Коректне відображення гео</t>
-  </si>
-  <si>
     <t>Інформація про операції (чеки тощо)</t>
   </si>
   <si>
@@ -178,7 +151,181 @@
     <t>Підключення зовнішніх пристроїв (карта пам'яті/навушники тощо)</t>
   </si>
   <si>
-    <t>Тестування сумісності використовується, щоб переконатися, що ваша програма сумісна з іншими версіями ОС, різними оболонками та сторонніми сервісами, а також апаратним забезпеченням пристрою.</t>
+    <t>Коректне відображення геолокації</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Skipped</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Notes/Bug ID</t>
+  </si>
+  <si>
+    <t>Функціональне тестування (Functional testing)</t>
+  </si>
+  <si>
+    <t>Тестування сумісності (Compatibility testing)</t>
+  </si>
+  <si>
+    <t>Тестування безпеки (Security testing)</t>
+  </si>
+  <si>
+    <t>Тестування дозволів (доступ до камери/мікрофону/галереї і т.д.)</t>
+  </si>
+  <si>
+    <t>Дані користувача (паролі) не передаються у відкритому вигляді</t>
+  </si>
+  <si>
+    <t>У полях, з введенням пароля та підтвердженням пароля, дані ховаються астерисками</t>
+  </si>
+  <si>
+    <t>Тестування локалізації і глобалізації (Localization and globalization testing)</t>
+  </si>
+  <si>
+    <t>Всі елементи в програмі перекладені відповідною мовою</t>
+  </si>
+  <si>
+    <t>Тексти залежать від мови у системних налаштуваннях</t>
+  </si>
+  <si>
+    <t>Тексти надходять із сервера</t>
+  </si>
+  <si>
+    <t>Коректне відображення форматів дат (РІК - МІСЯЦЬ - ДЕНЬ або ДЕНЬ - МІСЯЦЬ - РІК)</t>
+  </si>
+  <si>
+    <t>Коректне відображення часу в залежності від часового поясу</t>
+  </si>
+  <si>
+    <t>Тестування зручності використання (Usability testing)</t>
+  </si>
+  <si>
+    <t>Тестування зручності використання допомагає впевнитись у простоті та ефективності використання продукту користувачем, з метою досягнення поставлених цілей. Іншими словами, це тестування дружелюбності програми для користувача.</t>
+  </si>
+  <si>
+    <t>Коректне відображення елементів на пристроях з різною роздільною здатністю екранів</t>
+  </si>
+  <si>
+    <t>Усі шрифти відповідають вимогам</t>
+  </si>
+  <si>
+    <t>Усі тексти правильно вирівняні</t>
+  </si>
+  <si>
+    <t>Всі повідомлення про помилки вірні, без орфографічних та граматичних помилок</t>
+  </si>
+  <si>
+    <t>Коректні заголовки екранів</t>
+  </si>
+  <si>
+    <t>У пошукових рядках присутні плейсхолдери</t>
+  </si>
+  <si>
+    <t>Неактивні елементи відображаються сірим</t>
+  </si>
+  <si>
+    <t>Посилання на документи ведуть до відповідного розділу на сайті</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Анімація між переходами</t>
+  </si>
+  <si>
+    <t>Коректне повернення на попередній екран</t>
+  </si>
+  <si>
+    <t>Підтримуються основні жести під час роботи з сенсорними екранами (swipe back тощо)</t>
+  </si>
+  <si>
+    <t>Піксель-перфект</t>
+  </si>
+  <si>
+    <t>Стресове тестування (Stress testing)</t>
+  </si>
+  <si>
+    <t>Високе завантаження центрального процесора</t>
+  </si>
+  <si>
+    <t>Нестача пам'яті</t>
+  </si>
+  <si>
+    <t>Завантаження батареї</t>
+  </si>
+  <si>
+    <t>Відмови</t>
+  </si>
+  <si>
+    <t>Низька пропускна спроможність мережі</t>
+  </si>
+  <si>
+    <t>Крос-платформне тестування (Cross-platform testing)</t>
+  </si>
+  <si>
+    <t>Важливий вид тестування, який необхідно проводити для розуміння того, чи буде належним чином відображатися продукт, що тестується, на різних платформах, які використовуються цільовою аудиторією.</t>
+  </si>
+  <si>
+    <t>Тестування продуктивності (Performance testing)</t>
+  </si>
+  <si>
+    <t>Час завантаження програми</t>
+  </si>
+  <si>
+    <t>Обробка запитів</t>
+  </si>
+  <si>
+    <t>Кешування даних</t>
+  </si>
+  <si>
+    <t>Споживання ресурсів програмою (наприклад витрати заряду батареї)</t>
+  </si>
+  <si>
+    <t>Якщо користувач встановлює додаток, і він не відображається досить швидко (наприклад, протягом трьох секунд), його можна видалити на користь іншого додатку. Аспекти споживання часу і ресурсів є важливими факторами успіху для додатка, і для вимірювання цих аспектів проводиться тестування продуктивності.</t>
+  </si>
+  <si>
+    <t>Працездатність додатку на різних пристроях різних виробників</t>
+  </si>
+  <si>
+    <t>Велика кількість взаємодій користувача з додатком (для цього може знадобитися імітація реальних умов стану мережі)</t>
+  </si>
+  <si>
+    <t>Запуск додатку (відображення Splash Screen)</t>
+  </si>
+  <si>
+    <t>Навігація між розділами додатку</t>
+  </si>
+  <si>
+    <t>Тестування тайм-аутів (автоматичний вихід з додатку при закінченні певного часу)</t>
+  </si>
+  <si>
+    <t>Згортання/розгортання додатку</t>
+  </si>
+  <si>
+    <t>Реклама в додатку</t>
+  </si>
+  <si>
+    <t>Робота додатку в фоновому режимі</t>
+  </si>
+  <si>
+    <t>Тестування сумісності використовується, щоб переконатися, що додаток сумісний з іншими версіями ОС, різними оболонками та сторонніми сервісами, а також апаратним забезпеченням пристрою.</t>
+  </si>
+  <si>
+    <t>Ця перевірка націлена на пошук недоліків та прогалин з точки зору безпеки програми.</t>
+  </si>
+  <si>
+    <t>Тестування інтернаціоналізації/глобалізації додатку включає тестування додатку для різних місць розташування, форматів дат, чисел і валют, а також заміну фактичних рядків псевдорядками. Тестування локалізації включає тестування додатку з локалізованими рядками, зображеннями та робочими процесами для певного регіону.</t>
+  </si>
+  <si>
+    <t>Тексти зашиті всередині додатку і користувач в налаштуваннях додатку може виставити потрібну мову</t>
+  </si>
+  <si>
+    <t>Стресове тестування спрямоване на визначення ефективності продуктивності додатку в умовах підвищеного навантаження. Стрес-тест у цьому контексті орієнтований лише на мобільні пристрої.</t>
   </si>
 </sst>
 </file>
@@ -188,7 +335,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +381,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -255,7 +409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -304,15 +458,283 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -320,42 +742,204 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,371 +1221,906 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:AB76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:C38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73:E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="64.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="73.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="74" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="AB2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="AB3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="59">
+        <v>1.2</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="7"/>
+      <c r="AB4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="60">
+        <v>1.3</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="60">
+        <v>1.4</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="60">
+        <v>1.5</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="60">
+        <v>1.6</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="60">
+        <v>1.7</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="60">
+        <v>1.8</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="59">
+        <v>1.9</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="64">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B21" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="64">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="64">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="65">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="64">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="64">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="66">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="65">
+        <v>1.17</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="64">
+        <v>1.18</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="64">
+        <v>1.19</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="67">
+        <v>1.2</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>2</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="68">
+        <v>2.1</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="39"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="60">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="37"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="60">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="38"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="59">
+        <v>2.4</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="38"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="60">
+        <v>2.5</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="59">
+        <v>2.6</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="37"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="57">
+        <v>3</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="69">
+        <v>3.1</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="70">
+        <v>3.2</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="18"/>
+    </row>
+    <row r="42" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="71">
+        <v>3.3</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="19"/>
+    </row>
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="43">
+        <v>4</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="42"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="69">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B44" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="70">
+        <v>4.2</v>
+      </c>
+      <c r="B45" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="47"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="70">
+        <v>4.3</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="47"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="70">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="47"/>
+    </row>
+    <row r="48" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="70">
+        <v>4.5</v>
+      </c>
+      <c r="B48" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="47"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="71">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="48"/>
+    </row>
+    <row r="50" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="57">
+        <v>5</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="53"/>
+    </row>
+    <row r="51" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="69">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B51" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="70">
+        <v>5.2</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="47"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="70">
+        <v>5.3</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="47"/>
+    </row>
+    <row r="54" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="70">
+        <v>5.4</v>
+      </c>
+      <c r="B54" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="47"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="70">
+        <v>5.5</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="47"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="70">
+        <v>5.6</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="47"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="70">
+        <v>5.7</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="47"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="70">
+        <v>5.8</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="47"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="70">
+        <v>5.9</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="47"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="72">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="47"/>
+    </row>
+    <row r="61" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="72">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="B61" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="47"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="73">
+        <v>5.12</v>
+      </c>
+      <c r="B62" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="48"/>
+    </row>
+    <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="57">
         <v>6</v>
       </c>
-      <c r="C3" s="14"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="14"/>
-    </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1.3</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="B63" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="53"/>
+    </row>
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="69">
+        <v>6.1</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="70">
+        <v>6.2</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="47"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="70">
+        <v>6.3</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="47"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="70">
+        <v>6.4</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="47"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="70">
+        <v>6.5</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="47"/>
+    </row>
+    <row r="69" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="71">
+        <v>6.6</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="48"/>
+    </row>
+    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="57">
         <v>7</v>
       </c>
-      <c r="C5" s="14"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="B70" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="53"/>
+    </row>
+    <row r="71" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A71" s="75">
+        <v>7.1</v>
+      </c>
+      <c r="B71" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="77" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="57">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="14"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="14"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="14"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="14"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="14"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="14"/>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="14"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="14"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="14"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="14"/>
-    </row>
-    <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>1.6</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="14"/>
-    </row>
-    <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>1.7</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="14"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="14"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="14"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="14"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="14"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="14"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="14"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="14"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="14"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="14"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
-        <v>1.17</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="14"/>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
-        <v>1.18</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="14"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
-        <v>1.19</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="14"/>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="14"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>2</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>2.1</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="15"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="15"/>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="15"/>
-    </row>
-    <row r="36" spans="1:3" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>2.4</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="15"/>
-    </row>
-    <row r="37" spans="1:3" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="15"/>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>2.6</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="15"/>
+      <c r="B72" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" s="45"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="53"/>
+    </row>
+    <row r="73" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="69">
+        <v>8.1</v>
+      </c>
+      <c r="B73" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="70">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B74" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="47"/>
+    </row>
+    <row r="75" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="70">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B75" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="47"/>
+    </row>
+    <row r="76" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="71">
+        <v>8.4</v>
+      </c>
+      <c r="B76" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:C31"/>
-    <mergeCell ref="C32:C38"/>
+  <mergeCells count="15">
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="E51:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="E64:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="E44:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="E3:E31"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="E33:E38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Mobile_testing_(Checklist).xlsx
+++ b/Mobile_testing_(Checklist).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="106">
   <si>
     <t>Testing sections</t>
   </si>
@@ -235,9 +235,6 @@
     <t>Посилання на документи ведуть до відповідного розділу на сайті</t>
   </si>
   <si>
-    <t xml:space="preserve"> Анімація між переходами</t>
-  </si>
-  <si>
     <t>Коректне повернення на попередній екран</t>
   </si>
   <si>
@@ -326,6 +323,27 @@
   </si>
   <si>
     <t>Стресове тестування спрямоване на визначення ефективності продуктивності додатку в умовах підвищеного навантаження. Стрес-тест у цьому контексті орієнтований лише на мобільні пристрої.</t>
+  </si>
+  <si>
+    <t>Not implemented</t>
+  </si>
+  <si>
+    <t>Анімація між переходами</t>
+  </si>
+  <si>
+    <t>Not tested</t>
+  </si>
+  <si>
+    <t>Bug report ID.82</t>
+  </si>
+  <si>
+    <t>Bug report ID.83</t>
+  </si>
+  <si>
+    <t>Bug report ID.84</t>
+  </si>
+  <si>
+    <t>Bug report ID.85</t>
   </si>
 </sst>
 </file>
@@ -409,7 +427,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -729,11 +747,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -748,24 +807,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -775,17 +816,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -795,9 +825,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
@@ -825,128 +852,238 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9CC97D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9CC97D"/>
+      <color rgb="FFFF9393"/>
+      <color rgb="FFFF8989"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1224,15 +1361,18 @@
   <dimension ref="A1:AB76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73:E76"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E51" sqref="E51:E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="74" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="47" customWidth="1"/>
     <col min="2" max="2" width="65.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="77" customWidth="1"/>
+    <col min="4" max="4" width="18" style="77" customWidth="1"/>
     <col min="5" max="5" width="58" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1257,26 +1397,28 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
       <c r="AB2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58">
+      <c r="A3" s="31">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="67"/>
+      <c r="E3" s="61" t="s">
         <v>2</v>
       </c>
       <c r="AB3" t="s">
@@ -1284,846 +1426,1039 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="59">
+      <c r="A4" s="32">
         <v>1.2</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="7"/>
+      <c r="B4" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="68"/>
+      <c r="E4" s="62"/>
       <c r="AB4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60">
+      <c r="A5" s="33">
         <v>1.3</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="7"/>
+      <c r="C5" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="62"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="7"/>
+      <c r="C6" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="69"/>
+      <c r="E6" s="62"/>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="7"/>
+      <c r="C7" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="62"/>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="7"/>
+      <c r="C8" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="68"/>
+      <c r="E8" s="62"/>
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="7"/>
+      <c r="C9" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="62"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="69"/>
+      <c r="E10" s="62"/>
+    </row>
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="68"/>
+      <c r="E11" s="62"/>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="68"/>
+      <c r="E12" s="62"/>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="68"/>
+      <c r="E13" s="62"/>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="62"/>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
+        <v>1.4</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="78"/>
+      <c r="E15" s="62"/>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="78"/>
+      <c r="E16" s="62"/>
+    </row>
+    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
+        <v>1.6</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60">
-        <v>1.4</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="60">
-        <v>1.5</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="60">
-        <v>1.6</v>
-      </c>
-      <c r="B17" s="33" t="s">
+      <c r="C17" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="69"/>
+      <c r="E17" s="62"/>
+    </row>
+    <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
+        <v>1.7</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="68"/>
+      <c r="E18" s="62"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
+        <v>1.8</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="68"/>
+      <c r="E19" s="62"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="32">
+        <v>1.9</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="68"/>
+      <c r="E20" s="62"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="68"/>
+      <c r="E21" s="62"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="37">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="78"/>
+      <c r="E22" s="62"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="37">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="60">
-        <v>1.7</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60">
-        <v>1.8</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="59">
-        <v>1.9</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="B23" s="31" t="s">
+      <c r="C23" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="69"/>
+      <c r="E23" s="62"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="38">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="68"/>
+      <c r="E24" s="62"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="68"/>
+      <c r="E25" s="62"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="37">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="62"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="39">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="65">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="64">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="66">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="B27" s="32" t="s">
+      <c r="C27" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="69"/>
+      <c r="E27" s="62"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="38">
+        <v>1.17</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="62"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="37">
+        <v>1.18</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="65">
-        <v>1.17</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="64">
-        <v>1.18</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="7"/>
+      <c r="C29" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="68"/>
+      <c r="E29" s="62"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="64">
+      <c r="A30" s="37">
         <v>1.19</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="7"/>
+      <c r="C30" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="68"/>
+      <c r="E30" s="62"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="67">
+      <c r="A31" s="40">
         <v>1.2</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="8"/>
+      <c r="C31" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="71"/>
+      <c r="E31" s="63"/>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="68">
+      <c r="A33" s="41">
         <v>2.1</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="9" t="s">
+      <c r="C33" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="67"/>
+      <c r="E33" s="65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="33">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="68"/>
+      <c r="E34" s="66"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="33">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="68"/>
+      <c r="E35" s="66"/>
+    </row>
+    <row r="36" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="32">
+        <v>2.4</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="66"/>
+    </row>
+    <row r="37" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="68"/>
+      <c r="E37" s="66"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="32">
+        <v>2.6</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="79"/>
+      <c r="E38" s="66"/>
+    </row>
+    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="30">
+        <v>3</v>
+      </c>
+      <c r="B39" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="42">
+        <v>3.1</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="73"/>
+      <c r="E40" s="59" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="60">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="60">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="59">
-        <v>2.4</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="60">
-        <v>2.5</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="59">
-        <v>2.6</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="57">
-        <v>3</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="69">
-        <v>3.1</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="18" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="43">
+        <v>3.2</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="74"/>
+      <c r="E41" s="59"/>
+    </row>
+    <row r="42" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="44">
+        <v>3.3</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="75"/>
+      <c r="E42" s="60"/>
+    </row>
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22">
+        <v>4</v>
+      </c>
+      <c r="B43" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="42">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="73"/>
+      <c r="E44" s="52" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="70">
-        <v>3.2</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="18"/>
-    </row>
-    <row r="42" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="71">
-        <v>3.3</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="19"/>
-    </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="43">
-        <v>4</v>
-      </c>
-      <c r="B43" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="42"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="69">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B44" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="46" t="s">
+    <row r="45" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="43">
+        <v>4.2</v>
+      </c>
+      <c r="B45" s="24" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="70">
-        <v>4.2</v>
-      </c>
-      <c r="B45" s="50" t="s">
+      <c r="C45" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="74"/>
+      <c r="E45" s="53"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="43">
+        <v>4.3</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="74"/>
+      <c r="E46" s="53"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="43">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="74"/>
+      <c r="E47" s="53"/>
+    </row>
+    <row r="48" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="43">
+        <v>4.5</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="74"/>
+      <c r="E48" s="53"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="44">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="75"/>
+      <c r="E49" s="54"/>
+    </row>
+    <row r="50" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="30">
+        <v>5</v>
+      </c>
+      <c r="B50" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="57"/>
+    </row>
+    <row r="51" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="42">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="73"/>
+      <c r="E51" s="52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="43">
+        <v>5.2</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="53"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="43">
+        <v>5.3</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="74"/>
+      <c r="E53" s="53"/>
+    </row>
+    <row r="54" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="43">
+        <v>5.4</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="74"/>
+      <c r="E54" s="53"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="43">
+        <v>5.5</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="74"/>
+      <c r="E55" s="53"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="43">
+        <v>5.6</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="74"/>
+      <c r="E56" s="53"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="43">
+        <v>5.7</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="74"/>
+      <c r="E57" s="53"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="43">
+        <v>5.8</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="74"/>
+      <c r="E58" s="53"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="43">
+        <v>5.9</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="74"/>
+      <c r="E59" s="53"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="45">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="74"/>
+      <c r="E60" s="53"/>
+    </row>
+    <row r="61" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="45">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="74"/>
+      <c r="E61" s="53"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="46">
+        <v>5.12</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="75"/>
+      <c r="E62" s="54"/>
+    </row>
+    <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="30">
+        <v>6</v>
+      </c>
+      <c r="B63" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="57"/>
+    </row>
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="42">
+        <v>6.1</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64" s="73"/>
+      <c r="E64" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="47"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="70">
-        <v>4.3</v>
-      </c>
-      <c r="B46" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="47"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="70">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B47" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="47"/>
-    </row>
-    <row r="48" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="70">
-        <v>4.5</v>
-      </c>
-      <c r="B48" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="47"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="71">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="B49" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="48"/>
-    </row>
-    <row r="50" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="57">
-        <v>5</v>
-      </c>
-      <c r="B50" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="53"/>
-    </row>
-    <row r="51" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="69">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B51" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="70">
-        <v>5.2</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="47"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="70">
-        <v>5.3</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="47"/>
-    </row>
-    <row r="54" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="70">
-        <v>5.4</v>
-      </c>
-      <c r="B54" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="47"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="70">
-        <v>5.5</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="47"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="70">
-        <v>5.6</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="47"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="70">
-        <v>5.7</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="47"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="70">
-        <v>5.8</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="47"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="70">
-        <v>5.9</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="47"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="72">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="47"/>
-    </row>
-    <row r="61" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="72">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="B61" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="47"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="73">
-        <v>5.12</v>
-      </c>
-      <c r="B62" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="48"/>
-    </row>
-    <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="57">
-        <v>6</v>
-      </c>
-      <c r="B63" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="53"/>
-    </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="69">
-        <v>6.1</v>
-      </c>
-      <c r="B64" s="20" t="s">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="43">
+        <v>6.2</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="46" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="70">
-        <v>6.2</v>
-      </c>
-      <c r="B65" s="21" t="s">
+      <c r="C65" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" s="74"/>
+      <c r="E65" s="53"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="43">
+        <v>6.3</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="47"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="70">
-        <v>6.3</v>
-      </c>
-      <c r="B66" s="21" t="s">
+      <c r="C66" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" s="74"/>
+      <c r="E66" s="53"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="43">
+        <v>6.4</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="47"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="70">
-        <v>6.4</v>
-      </c>
-      <c r="B67" s="21" t="s">
+      <c r="C67" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" s="53"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="43">
+        <v>6.5</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="47"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="70">
-        <v>6.5</v>
-      </c>
-      <c r="B68" s="21" t="s">
+      <c r="C68" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" s="74"/>
+      <c r="E68" s="53"/>
+    </row>
+    <row r="69" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="44">
+        <v>6.6</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="D69" s="75"/>
+      <c r="E69" s="54"/>
+    </row>
+    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="30">
+        <v>7</v>
+      </c>
+      <c r="B70" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="47"/>
-    </row>
-    <row r="69" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="71">
-        <v>6.6</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="48"/>
-    </row>
-    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="57">
-        <v>7</v>
-      </c>
-      <c r="B70" s="45" t="s">
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="57"/>
+    </row>
+    <row r="71" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A71" s="48">
+        <v>7.1</v>
+      </c>
+      <c r="B71" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" s="76"/>
+      <c r="E71" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="53"/>
-    </row>
-    <row r="71" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A71" s="75">
-        <v>7.1</v>
-      </c>
-      <c r="B71" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="77" t="s">
+    </row>
+    <row r="72" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="30">
+        <v>8</v>
+      </c>
+      <c r="B72" s="55" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="57">
-        <v>8</v>
-      </c>
-      <c r="B72" s="44" t="s">
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="57"/>
+    </row>
+    <row r="73" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="42">
+        <v>8.1</v>
+      </c>
+      <c r="B73" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="45"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="53"/>
-    </row>
-    <row r="73" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="69">
-        <v>8.1</v>
-      </c>
-      <c r="B73" s="49" t="s">
+      <c r="C73" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="D73" s="73"/>
+      <c r="E73" s="52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="43">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B74" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="46" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="70">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B74" s="51" t="s">
+      <c r="C74" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" s="74"/>
+      <c r="E74" s="53"/>
+    </row>
+    <row r="75" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="43">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B75" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="47"/>
-    </row>
-    <row r="75" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="70">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="B75" s="51" t="s">
+      <c r="C75" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="D75" s="74"/>
+      <c r="E75" s="53"/>
+    </row>
+    <row r="76" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="44">
+        <v>8.4</v>
+      </c>
+      <c r="B76" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="47"/>
-    </row>
-    <row r="76" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="71">
-        <v>8.4</v>
-      </c>
-      <c r="B76" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="48"/>
+      <c r="C76" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="D76" s="75"/>
+      <c r="E76" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E3:E31"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="E44:E49"/>
+    <mergeCell ref="B50:E50"/>
     <mergeCell ref="E73:E76"/>
     <mergeCell ref="E51:E62"/>
     <mergeCell ref="B63:E63"/>
     <mergeCell ref="E64:E69"/>
     <mergeCell ref="B70:E70"/>
     <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="E44:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="E3:E31"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="E33:E38"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C31 C33:C38 C40:C42 C44:C49 C51:C62 C64:C69 C71 C73:C76">
+      <formula1>$AB$2:$AB$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{8399FD4A-AD5F-4DFC-94CC-FC33406C1E8A}">
+            <xm:f>NOT(ISERROR(SEARCH($AB$2,C3)))</xm:f>
+            <xm:f>$AB$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF9393"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{3F793A83-7DE4-4F94-A354-57B53BB3AB01}">
+            <xm:f>NOT(ISERROR(SEARCH($AB$3,C3)))</xm:f>
+            <xm:f>$AB$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF9CC97D"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{A226FC6A-C892-4259-85EC-3F508ECCCE46}">
+            <xm:f>NOT(ISERROR(SEARCH($AB$4,C3)))</xm:f>
+            <xm:f>$AB$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C3:C31 C33:C38 C40:C42 C44:C49 C51:C62 C64:C69 C71 C73:C76</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
